--- a/AccuPay/ImportTemplates/accupay-loan-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-loan-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee ID</t>
   </si>
@@ -56,13 +56,16 @@
   </si>
   <si>
     <t>Loan Type</t>
+  </si>
+  <si>
+    <t>EmployeeRowId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,7 +77,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -108,6 +117,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -401,11 +413,12 @@
     <col min="8" max="8" width="17.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="60.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="3" customWidth="1"/>
-    <col min="11" max="1025" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -436,9 +449,12 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iNBocmw5dxyyrN05Dc0wjnEVVYoA061oKxiVk9fLr77wuaZ/8YT/4PC5X7Y4VxY/od1KvqfVytXe4mjm/3Px0A==" saltValue="p+BwovY9eos/aih7und6Yw==" spinCount="100000" sheet="1" objects="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"Per pay period,End of the month,First half"</formula1>

--- a/AccuPay/ImportTemplates/accupay-loan-template.xlsx
+++ b/AccuPay/ImportTemplates/accupay-loan-template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lambert\accupay\AccuPay\ImportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="En9ae2sejJZaCVelsS9fXuwI807AoEu5Vss2v2v8Pnw13WAZdRMqVvSlyws6058VJ/9GckHarG5wbIOL3SVYFg==" workbookSaltValue="Ma8I2FeAOTakd1YKqf3pTQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8355" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
-    <sheet name="Options" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -398,18 +399,18 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="60.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="3" customWidth="1"/>
@@ -454,7 +455,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iNBocmw5dxyyrN05Dc0wjnEVVYoA061oKxiVk9fLr77wuaZ/8YT/4PC5X7Y4VxY/od1KvqfVytXe4mjm/3Px0A==" saltValue="p+BwovY9eos/aih7und6Yw==" spinCount="100000" sheet="1" objects="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l9zznDD/0DWZl5GITtPhX7tFIknYdZF0M7uaOhS71GV+wIQ3zjGqcrrB/SiJPTKCnXxGlMBX4B5qVypB9T6G+g==" saltValue="TWrRvmpcp4MNHfEvogLIIg==" spinCount="100000" sheet="1" objects="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"Per pay period,End of the month,First half"</formula1>
@@ -488,7 +489,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
